--- a/biology/Médecine/Ordre_de_la_Santé_publique/Ordre_de_la_Santé_publique.xlsx
+++ b/biology/Médecine/Ordre_de_la_Santé_publique/Ordre_de_la_Santé_publique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ordre_de_la_Sant%C3%A9_publique</t>
+          <t>Ordre_de_la_Santé_publique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’ordre de la Santé publique, créé par décret en date du 18 février 1938[1]   et modifié par celui du 22 mai 1954, avait pour but de récompenser les personnes ayant rendu des services signalés à l'assistance publique, à l'hygiène ou à la protection de l'enfance[2].
+L’ordre de la Santé publique, créé par décret en date du 18 février 1938   et modifié par celui du 22 mai 1954, avait pour but de récompenser les personnes ayant rendu des services signalés à l'assistance publique, à l'hygiène ou à la protection de l'enfance.
 Il remplaçait les médailles d'honneur de l'assistance publique, de l'hygiène publique et de la protection de l'enfance créées en 1891 et 1912.
 L'ordre de la Santé publique comprenait trois classes : chevalier, officier et commandeur. Il était administré par le ministre du Travail assisté d'un Conseil de l'Ordre. Le bijou est l'œuvre du graveur Lucien Bazor d'après une maquette de l'affichiste Paul Colin.
 Il a été remplacé par l'ordre national du Mérite après 1963.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ordre_de_la_Sant%C3%A9_publique</t>
+          <t>Ordre_de_la_Santé_publique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Conseil de l'Ordre[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un conseil de l'ordre dont les membres sont commandeurs de droit, est institué près le ministre de la santé publique. Il est composé du ministre de la santé publique ou son représentant, président ; du directeur général de l'hygiène et de l'assistance ; du directeur du personnel au ministère de la santé publique ; du directeur adjoint de l'hygiène et de l'assistance ; du président du conseil supérieur de l'assistance publique ; d'un vice-président du conseil supérieur de l'hygiène publique ; d'un vice-président du conseil supérieur de la protection de l'enfance ; d'un vice-président du conseil supérieur de l'hygiène sociale ; et enfin d'un chef du bureau du cabinet qui remplira les fonctions de secrétaire du conseil de l'ordre, et d'un rédacteur du bureau du cabinet qui remplira les fonctions de secrétaire adjoint.
 </t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ordre_de_la_Sant%C3%A9_publique</t>
+          <t>Ordre_de_la_Santé_publique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Récipiendaires de l'ordre de la Santé publique[1],[2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les noms des récipiendaires de la croix de la Santé publique étaient publiés au Journal officiel. Les nominations ou promotions avaient lieu chaque année, au 1er janvier et au 14 juillet, par décret rendu sur la proposition du ministre de la santé publique. Le contingent semestriel attribué aux différents grades est fixé à : 20 commandeurs, 85 officiers, 400 chevaliers.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms des récipiendaires de la croix de la Santé publique étaient publiés au Journal officiel. Les nominations ou promotions avaient lieu chaque année, au 1er janvier et au 14 juillet, par décret rendu sur la proposition du ministre de la santé publique. Le contingent semestriel attribué aux différents grades est fixé à : 20 commandeurs, 85 officiers, 400 chevaliers.
 Pour être nommé au grade de chevalier, il faut être âgé de trente ans au moins, jouir de ses droits civils et justifier au minimum de dix ans de services rendus à l'assistance publique, à l'hygiène ou à la protection de l'enfance. Nul ne pourra être promu au grade de commandeur ou d'officier s'il ne justifie d'une ancienneté de cinq ans dans le grade immédiatement inférieur.
 Par dérogation et à titre exceptionnel, les commandeurs et officiers de la Légion d'honneur pourront être promus directement au grade correspondant de l'ordre de la Santé publique, sans avoir à justifier de l'ancienneté requise dans les grades inférieurs.
 À titre transitoire, seront, de plein droit : 
@@ -557,16 +573,7 @@
 Officiers :  les titulaires de la médaille d'or de l'assistance publique ou de la médaille d'or de l'hygiène publique et les titulaires des deux médailles d'argent de l'assistance publique et de l'hygiène publique.
 Chevaliers : les titulaires de la médaille d'argent de l'assistance ou de l'hygiène publique et les titulaires des deux médailles de bronze de l'assistance et de l'hygiène publique. Les titulaires d'une seule des médailles de bronze de l'assistance ou de l'hygiène publique pourront, à titre transitoire, continuer à porter leur insigne.
 Par ailleurs, lors de la première promotion, le ministre de la santé publique a pu, en raison de titres exceptionnels, procéder à la nomination, en sus du contingent prévu par l'article 6 du décret du 18 février 1938, de vingt commandeurs et de cinquante officiers.
-Commandeurs
-Henri Petitjean, vice-président de la commission administrative de l'hôpital du Mans, nommé commandeur en 1956[3].
-Ernest Schaffner, médecin, militant socialiste, résistant et homme politique français.
-Alfred Reilinger, médecin général inspecteur, directeur des services de santé des Armées
-Officiers
-Marie-Anne Croguennec (1887-1979), sage-femme, nommée officier en 1960[4].
-Chevaliers
-Docteur Pierre Maurice Guigner[5] (1905-1966), médecin biologiste, directeur du laboratoire de l'hôpital du Mans, fondateur et directeur du Centre de transfusion sanguine du Mans, nommé chevalier en 1961[6].
-Docteur Pierre Barbé,  chef de service à l'hôpital du Mans, président du conseil de l'Ordre des médecins de la Sarthe, nommé chevalier en 1956[3].
-Docteur Loubriat, chef de service à l'hôpital du Mans, nommé chevalier en 1956[3].</t>
+</t>
         </is>
       </c>
     </row>
@@ -576,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ordre_de_la_Sant%C3%A9_publique</t>
+          <t>Ordre_de_la_Santé_publique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,10 +598,124 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Récipiendaires de l'ordre de la Santé publique[1],[2]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Commandeurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Henri Petitjean, vice-président de la commission administrative de l'hôpital du Mans, nommé commandeur en 1956.
+Ernest Schaffner, médecin, militant socialiste, résistant et homme politique français.
+Alfred Reilinger, médecin général inspecteur, directeur des services de santé des Armées</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ordre_de_la_Santé_publique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ordre_de_la_Sant%C3%A9_publique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Récipiendaires de l'ordre de la Santé publique[1],[2]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Officiers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Marie-Anne Croguennec (1887-1979), sage-femme, nommée officier en 1960.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ordre_de_la_Santé_publique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ordre_de_la_Sant%C3%A9_publique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Récipiendaires de l'ordre de la Santé publique[1],[2]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chevaliers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Docteur Pierre Maurice Guigner (1905-1966), médecin biologiste, directeur du laboratoire de l'hôpital du Mans, fondateur et directeur du Centre de transfusion sanguine du Mans, nommé chevalier en 1961.
+Docteur Pierre Barbé,  chef de service à l'hôpital du Mans, président du conseil de l'Ordre des médecins de la Sarthe, nommé chevalier en 1956.
+Docteur Loubriat, chef de service à l'hôpital du Mans, nommé chevalier en 1956.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ordre_de_la_Santé_publique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ordre_de_la_Sant%C3%A9_publique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Insignes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
